--- a/backend/iso_keyword/app/static/iso_bulksheet.xlsx
+++ b/backend/iso_keyword/app/static/iso_bulksheet.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC261"/>
+  <dimension ref="A1:AC289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +589,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -599,11 +599,11 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence slats</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.8379310344827586</v>
+        <v>0.3626315789473684</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -640,7 +640,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -650,7 +650,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence slats</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -659,7 +659,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>LJ-BNHC-121517-04-1</t>
+          <t>LJ-YQPMF-062220-01-1</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -693,7 +693,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -703,15 +703,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence slats</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>0.8379310344827586</v>
+        <v>0.3626315789473684</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>fence slats</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -752,7 +752,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -764,7 +764,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>fence slats</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -805,7 +805,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -815,11 +815,11 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence slats</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>0.8379310344827586</v>
+        <v>0.3626315789473684</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -856,7 +856,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -866,7 +866,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence slats</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -875,7 +875,7 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>LJ-BNHC-121517-04-1</t>
+          <t>LJ-YQPMF-062220-01-1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -919,15 +919,15 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence slats</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0.8379310344827586</v>
+        <v>0.3626315789473684</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>fence slats</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -968,7 +968,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073WVH2M3_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Auto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -980,7 +980,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
+          <t>fence slats</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1031,11 +1031,11 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Broad_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>0.3505555555555555</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -1072,7 +1072,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Broad_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1091,7 +1091,7 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>LJ-SHSES-062321-01-1</t>
+          <t>LJ-BNHC-121517-04-1</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1135,15 +1135,15 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Broad_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Broad_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.3505555555555555</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>dresser for bedroom</t>
+          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Broad</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>dresser for bedroom</t>
+          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1247,11 +1247,11 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Exact_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.3505555555555555</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Exact_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1307,7 +1307,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>LJ-SHSES-062321-01-1</t>
+          <t>LJ-BNHC-121517-04-1</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Exact</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1351,15 +1351,15 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AG_B097SS4XNV_M_Exact_dresser for bedroom</t>
+          <t>AG_B073WVH2M3_M_Exact_jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0.3505555555555555</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>dresser for bedroom</t>
+          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1400,7 +1400,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097SS4XNV_ISO_Auto</t>
+          <t>Juvo_AMZUS_B073WVH2M3_ISO_Auto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1412,7 +1412,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>dresser for bedroom</t>
+          <t>jekkis 9 inches tall wood easels set of 12 tabletop display easels</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1453,7 +1453,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097SR5571_ISO_Exact</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1463,11 +1463,11 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
+          <t>AG_B097SR5571_M_Product_B0881LTFM8</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0.2455555555555556</v>
+        <v>0.235</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -1504,7 +1504,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097SR5571_ISO_Exact</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
+          <t>AG_B097SR5571_M_Product_B0881LTFM8</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1523,7 +1523,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>LJ-HIPPO-031221-03-1</t>
+          <t>LJ-YCYIM-062321-02-1</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1557,7 +1557,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097SR5571_ISO_Exact</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1567,16 +1567,16 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
+          <t>AG_B097SR5571_M_Product_B0881LTFM8</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>0.2455555555555556</v>
+        <v>0.235</v>
       </c>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>asin="B0000CF8Q6"</t>
+          <t>asin="B0881LTFM8"</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1616,7 +1616,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B097SR5571_ISO_Auto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1626,14 +1626,14 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AG_B08Z7TYQQM_A</t>
+          <t>AG_B097SR5571_A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>asin="B0000CF8Q6"</t>
+          <t>asin="B0881LTFM8"</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1683,11 +1683,11 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
+          <t>AG_B097SS4XNV_M_Product_B087WV4MXY</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>0.398</v>
+        <v>0.3521428571428572</v>
       </c>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
@@ -1724,7 +1724,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
+          <t>AG_B097SS4XNV_M_Product_B087WV4MXY</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1743,7 +1743,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>LJ-XMOKC-061121-04-1</t>
+          <t>LJ-SHSES-062321-01-1</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -1771,13 +1771,13 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097SS4XNV_ISO_Exact</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1787,21 +1787,21 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
+          <t>AG_B097SS4XNV_M_Product_B087WV4MXY</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>nurse hair ties</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0.3521428571428572</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>asin="B087WV4MXY"</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -1830,13 +1830,13 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097SS4XNV_ISO_Auto</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1844,17 +1844,21 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>AG_B097SS4XNV_A</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>nurse hair ties</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>asin="B087WV4MXY"</t>
+        </is>
+      </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1862,7 +1866,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1889,7 +1893,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Exact</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1899,11 +1903,11 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
+          <t>AG_B07CJJN3PM_M_Product_B015DZJ8VI</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>0.398</v>
+        <v>0.3572</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
@@ -1940,7 +1944,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Exact</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1950,7 +1954,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
+          <t>AG_B07CJJN3PM_M_Product_B015DZJ8VI</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1959,7 +1963,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>LJ-XMOKC-061121-04-1</t>
+          <t>LJ-GDXGF-042018-03-1</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -1987,13 +1991,13 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Exact</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2003,21 +2007,21 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
+          <t>AG_B07CJJN3PM_M_Product_B015DZJ8VI</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>nurse hair ties</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>0.3572</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>asin="B015DZJ8VI"</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2046,13 +2050,13 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097B39GL7_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Auto</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2060,17 +2064,21 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>AG_B07CJJN3PM_A</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>nurse hair ties</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>asin="B015DZJ8VI"</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -2078,7 +2086,7 @@
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2105,7 +2113,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2115,11 +2123,11 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence covering privacy</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>0.4181818181818181</v>
+        <v>0.365</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -2156,7 +2164,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2166,7 +2174,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence covering privacy</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2175,7 +2183,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>LJ-GDPLS-072721-07-1</t>
+          <t>LJ-YQPMF-062220-01-1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2209,7 +2217,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2219,15 +2227,15 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Broad_fence covering privacy</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0.4181818181818181</v>
+        <v>0.365</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>thank you bags for business small</t>
+          <t>fence covering privacy</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2268,7 +2276,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Broad</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2280,7 +2288,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>thank you bags for business small</t>
+          <t>fence covering privacy</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2321,7 +2329,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2331,11 +2339,11 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence covering privacy</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>0.4181818181818181</v>
+        <v>0.365</v>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2372,7 +2380,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2382,7 +2390,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence covering privacy</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
@@ -2391,7 +2399,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LJ-GDPLS-072721-07-1</t>
+          <t>LJ-YQPMF-062220-01-1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2425,7 +2433,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Exact</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2435,15 +2443,15 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
+          <t>AG_B08BN8T6TB_M_Exact_fence covering privacy</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>0.4181818181818181</v>
+        <v>0.365</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>thank you bags for business small</t>
+          <t>fence covering privacy</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -2484,7 +2492,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BN8T6TB_ISO_Auto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2496,7 +2504,7 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>thank you bags for business small</t>
+          <t>fence covering privacy</t>
         </is>
       </c>
       <c r="N37" t="inlineStr"/>
@@ -2537,7 +2545,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08TR4NC8F_ISO_Exact</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2547,11 +2555,11 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
+          <t>AG_B08TR4NC8F_M_Product_B07D3SJ7TN</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>0.34</v>
+        <v>0.524</v>
       </c>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -2588,7 +2596,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08TR4NC8F_ISO_Exact</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2598,7 +2606,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
+          <t>AG_B08TR4NC8F_M_Product_B07D3SJ7TN</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
@@ -2607,7 +2615,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LJ-NBERN-051118-01-1</t>
+          <t>LJ-HMAZS-012121-01-1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -2635,13 +2643,13 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08TR4NC8F_ISO_Exact</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2651,21 +2659,21 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
+          <t>AG_B08TR4NC8F_M_Product_B07D3SJ7TN</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>shrinky dinks</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>0.524</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>asin="B07D3SJ7TN"</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
@@ -2694,13 +2702,13 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08TR4NC8F_ISO_Auto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2708,17 +2716,21 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>AG_B08TR4NC8F_A</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>shrinky dinks</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>asin="B07D3SJ7TN"</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2726,7 +2738,7 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2753,7 +2765,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2763,11 +2775,11 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
+          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>0.34</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
@@ -2804,7 +2816,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2814,7 +2826,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
+          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2823,7 +2835,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>LJ-NBERN-051118-01-1</t>
+          <t>LJ-XMOKC-061121-04-1</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -2857,7 +2869,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2867,21 +2879,21 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
+          <t>AG_B097B39GL7_M_Broad_nurse hair ties</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>0.34</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>shrinky dinks</t>
+          <t>nurse hair ties</t>
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2916,7 +2928,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Broad</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -2928,7 +2940,7 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>shrinky dinks</t>
+          <t>nurse hair ties</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -2969,7 +2981,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2979,11 +2991,11 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Product_B07YBR6VZW</t>
+          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>0.3233333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -3020,7 +3032,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3030,7 +3042,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Product_B07YBR6VZW</t>
+          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3039,7 +3051,7 @@
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>LJ-BKSLC-011518-01-1</t>
+          <t>LJ-XMOKC-061121-04-1</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
@@ -3067,13 +3079,13 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Exact</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3083,21 +3095,21 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Product_B07YBR6VZW</t>
+          <t>AG_B097B39GL7_M_Exact_nurse hair ties</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0.3233333333333333</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>asin="B07YBR6VZW"</t>
-        </is>
-      </c>
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>nurse hair ties</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3126,13 +3138,13 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Auto</t>
+          <t>Juvo_AMZUS_B097B39GL7_ISO_Auto</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3140,21 +3152,17 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>AG_B01DLYJ2G4_A</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>asin="B07YBR6VZW"</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>nurse hair ties</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3162,7 +3170,7 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3189,7 +3197,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3199,11 +3207,11 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Broad_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.34</v>
       </c>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3240,7 +3248,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3250,7 +3258,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Broad_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3259,7 +3267,7 @@
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>LJ-DGJNX-062820-03-1</t>
+          <t>LJ-NBERN-051118-01-1</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
@@ -3293,7 +3301,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3303,15 +3311,15 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Broad_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dinks</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.34</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>blank yard signs</t>
+          <t>shrinky dinks</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -3352,7 +3360,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3364,7 +3372,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>blank yard signs</t>
+          <t>shrinky dinks</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -3405,7 +3413,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3415,11 +3423,11 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Exact_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.34</v>
       </c>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3456,7 +3464,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3466,7 +3474,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Exact_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
@@ -3475,7 +3483,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>LJ-DGJNX-062820-03-1</t>
+          <t>LJ-NBERN-051118-01-1</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
@@ -3509,7 +3517,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -3519,15 +3527,15 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>AG_B08C2WRBGM_M_Exact_blank yard signs</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dinks</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.34</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>blank yard signs</t>
+          <t>shrinky dinks</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
@@ -3568,7 +3576,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08C2WRBGM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -3580,7 +3588,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>blank yard signs</t>
+          <t>shrinky dinks</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -3621,7 +3629,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -3631,11 +3639,11 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
+          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0.2678947368421053</v>
+        <v>0.4189795918367347</v>
       </c>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3672,7 +3680,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -3682,7 +3690,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
+          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
@@ -3691,7 +3699,7 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>LJ-SHSES-063021-02-1</t>
+          <t>LJ-GDPLS-072721-07-1</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
@@ -3719,13 +3727,13 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -3735,21 +3743,21 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
+          <t>AG_B09BC1Y4NN_M_Broad_thank you bags for business small</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>0.2678947368421053</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>asin="B07MZHJG3Z"</t>
-        </is>
-      </c>
+        <v>0.4189795918367347</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>thank you bags for business small</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P60" t="inlineStr"/>
@@ -3778,13 +3786,13 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B098D8QZNY_ISO_Auto</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Broad</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -3792,21 +3800,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>AG_B098D8QZNY_A</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>asin="B07MZHJG3Z"</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>thank you bags for business small</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3814,7 +3818,7 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -3841,7 +3845,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3851,11 +3855,11 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
+          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>0.2429411764705882</v>
+        <v>0.4189795918367347</v>
       </c>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3892,7 +3896,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3902,7 +3906,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
+          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
@@ -3911,7 +3915,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>LJ-HOTOF-052621-05-1</t>
+          <t>LJ-GDPLS-072721-07-1</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
@@ -3939,13 +3943,13 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Exact</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -3955,21 +3959,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
+          <t>AG_B09BC1Y4NN_M_Exact_thank you bags for business small</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>0.2429411764705882</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>asin="B095XWL8YZ"</t>
-        </is>
-      </c>
+        <v>0.4189795918367347</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>thank you bags for business small</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -3998,13 +4002,13 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XW75TW_ISO_Auto</t>
+          <t>Juvo_AMZUS_B09BC1Y4NN_ISO_Auto</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4012,21 +4016,17 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>AG_B095XW75TW_A</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>asin="B095XWL8YZ"</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>thank you bags for business small</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -4034,7 +4034,7 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4071,11 +4071,11 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Broad_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Broad_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L66" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2875862068965517</v>
       </c>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4112,7 +4112,7 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4122,7 +4122,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Broad_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Broad_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
@@ -4131,7 +4131,7 @@
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>LJ-JWGLF-061821-03-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
@@ -4165,7 +4165,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4175,15 +4175,15 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Broad_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Broad_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2875862068965517</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>screen door mesh</t>
+          <t>money gift envelopes for cash</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -4224,7 +4224,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4236,7 +4236,7 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>screen door mesh</t>
+          <t>money gift envelopes for cash</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -4277,7 +4277,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4287,11 +4287,11 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Exact_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Exact_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2875862068965517</v>
       </c>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr"/>
@@ -4328,7 +4328,7 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4338,7 +4338,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Exact_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Exact_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
@@ -4347,7 +4347,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>LJ-JWGLF-061821-03-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
@@ -4381,7 +4381,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -4391,15 +4391,15 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>AG_B097M34CZV_M_Exact_screen door mesh</t>
+          <t>AG_B07HJ3WCXK_M_Exact_money gift envelopes for cash</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.2875862068965517</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>screen door mesh</t>
+          <t>money gift envelopes for cash</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -4440,7 +4440,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B097M34CZV_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Auto</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -4452,7 +4452,7 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>screen door mesh</t>
+          <t>money gift envelopes for cash</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08DHPFZ8N_ISO_Exact</t>
+          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -4503,11 +4503,11 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>AG_B08DHPFZ8N_M_Product_B07FXCKY26</t>
+          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>0.215625</v>
+        <v>0.2705</v>
       </c>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4544,7 +4544,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08DHPFZ8N_ISO_Exact</t>
+          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4554,7 +4554,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>AG_B08DHPFZ8N_M_Product_B07FXCKY26</t>
+          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4563,7 +4563,7 @@
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>LJ-LINUO-072220-06-1</t>
+          <t>LJ-SHSES-063021-02-1</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
@@ -4597,7 +4597,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08DHPFZ8N_ISO_Exact</t>
+          <t>Juvo_AMZUS_B098D8QZNY_ISO_Exact</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4607,16 +4607,16 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>AG_B08DHPFZ8N_M_Product_B07FXCKY26</t>
+          <t>AG_B098D8QZNY_M_Product_B07MZHJG3Z</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>0.215625</v>
+        <v>0.2705</v>
       </c>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>asin="B07FXCKY26"</t>
+          <t>asin="B07MZHJG3Z"</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4656,7 +4656,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08DHPFZ8N_ISO_Auto</t>
+          <t>Juvo_AMZUS_B098D8QZNY_ISO_Auto</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4666,14 +4666,14 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>AG_B08DHPFZ8N_A</t>
+          <t>AG_B098D8QZNY_A</t>
         </is>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>asin="B07FXCKY26"</t>
+          <t>asin="B07MZHJG3Z"</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4713,7 +4713,7 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08GPRHD5P_ISO_Exact</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -4723,11 +4723,11 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Broad_clay pots for plants</t>
+          <t>AG_B08GPRHD5P_M_Product_B083QNTCD9</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>0.2075862068965517</v>
+        <v>0.320625</v>
       </c>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4764,7 +4764,7 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08GPRHD5P_ISO_Exact</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Broad_clay pots for plants</t>
+          <t>AG_B08GPRHD5P_M_Product_B083QNTCD9</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
@@ -4783,7 +4783,7 @@
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>LJ-FXJSL-042018-03-1</t>
+          <t>LJ-XJRYP-081820-01-1</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
@@ -4811,13 +4811,13 @@
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08GPRHD5P_ISO_Exact</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -4827,21 +4827,21 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Broad_clay pots for plants</t>
+          <t>AG_B08GPRHD5P_M_Product_B083QNTCD9</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>0.2075862068965517</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>clay pots for plants</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>0.320625</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>asin="B083QNTCD9"</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
@@ -4870,13 +4870,13 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08GPRHD5P_ISO_Auto</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -4884,17 +4884,21 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>AG_B08GPRHD5P_A</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>clay pots for plants</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>asin="B083QNTCD9"</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
@@ -4902,7 +4906,7 @@
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T81" t="inlineStr"/>
@@ -4929,7 +4933,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -4939,11 +4943,11 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Exact_clay pots for plants</t>
+          <t>AG_B07XSKKV3Y_M_Broad_clipboards</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>0.2075862068965517</v>
+        <v>0.363125</v>
       </c>
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr"/>
@@ -4980,7 +4984,7 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -4990,7 +4994,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Exact_clay pots for plants</t>
+          <t>AG_B07XSKKV3Y_M_Broad_clipboards</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
@@ -4999,7 +5003,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>LJ-FXJSL-042018-03-1</t>
+          <t>LJ-SIGMA-091119-03-1</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
@@ -5033,7 +5037,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5043,21 +5047,21 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>AG_B07CJPHFLB_M_Exact_clay pots for plants</t>
+          <t>AG_B07XSKKV3Y_M_Broad_clipboards</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>0.2075862068965517</v>
+        <v>0.363125</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>clay pots for plants</t>
+          <t>clipboards</t>
         </is>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P84" t="inlineStr"/>
@@ -5092,7 +5096,7 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJPHFLB_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5104,7 +5108,7 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>clay pots for plants</t>
+          <t>clipboards</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -5145,7 +5149,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -5155,11 +5159,11 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Broad_rectal thermometer covers disposable</t>
+          <t>AG_B07XSKKV3Y_M_Exact_clipboards</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>0.4952631578947368</v>
+        <v>0.363125</v>
       </c>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -5196,7 +5200,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -5206,7 +5210,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Broad_rectal thermometer covers disposable</t>
+          <t>AG_B07XSKKV3Y_M_Exact_clipboards</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -5215,7 +5219,7 @@
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>LJ-JENLG-122517-01-1-2</t>
+          <t>LJ-SIGMA-091119-03-1</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
@@ -5249,7 +5253,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -5259,21 +5263,21 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Broad_rectal thermometer covers disposable</t>
+          <t>AG_B07XSKKV3Y_M_Exact_clipboards</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>0.4952631578947368</v>
+        <v>0.363125</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>rectal thermometer covers disposable</t>
+          <t>clipboards</t>
         </is>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
@@ -5308,7 +5312,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07XSKKV3Y_ISO_Auto</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5320,7 +5324,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>rectal thermometer covers disposable</t>
+          <t>clipboards</t>
         </is>
       </c>
       <c r="N89" t="inlineStr"/>
@@ -5361,7 +5365,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Broad</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -5371,11 +5375,11 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Exact_rectal thermometer covers disposable</t>
+          <t>AG_B01G595N9C_M_Broad_baby hangers</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>0.4952631578947368</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
@@ -5412,7 +5416,7 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Broad</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -5422,7 +5426,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Exact_rectal thermometer covers disposable</t>
+          <t>AG_B01G595N9C_M_Broad_baby hangers</t>
         </is>
       </c>
       <c r="L91" t="inlineStr"/>
@@ -5431,7 +5435,7 @@
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>LJ-JENLG-122517-01-1-2</t>
+          <t>LJ-DGDTG-111017-05-1</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
@@ -5465,7 +5469,7 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Broad</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -5475,21 +5479,21 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>AG_B073RCVR7T_M_Exact_rectal thermometer covers disposable</t>
+          <t>AG_B01G595N9C_M_Broad_baby hangers</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>0.4952631578947368</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>rectal thermometer covers disposable</t>
+          <t>baby hangers</t>
         </is>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P92" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B073RCVR7T_ISO_Auto</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Broad</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -5536,7 +5540,7 @@
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>rectal thermometer covers disposable</t>
+          <t>baby hangers</t>
         </is>
       </c>
       <c r="N93" t="inlineStr"/>
@@ -5577,7 +5581,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Exact</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -5587,11 +5591,11 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrink paper</t>
+          <t>AG_B01G595N9C_M_Exact_baby hangers</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>0.3379999999999999</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
@@ -5628,7 +5632,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Exact</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -5638,7 +5642,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrink paper</t>
+          <t>AG_B01G595N9C_M_Exact_baby hangers</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
@@ -5647,7 +5651,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>LJ-NBERN-051118-01-1</t>
+          <t>LJ-DGDTG-111017-05-1</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
@@ -5681,7 +5685,7 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Exact</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -5691,21 +5695,21 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrink paper</t>
+          <t>AG_B01G595N9C_M_Exact_baby hangers</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>0.3379999999999999</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>shrink paper</t>
+          <t>baby hangers</t>
         </is>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P96" t="inlineStr"/>
@@ -5740,7 +5744,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01G595N9C_ISO_Auto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -5752,7 +5756,7 @@
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>shrink paper</t>
+          <t>baby hangers</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
@@ -5793,7 +5797,7 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -5803,11 +5807,11 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrink paper</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.3379999999999999</v>
+        <v>0.3282926829268293</v>
       </c>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
@@ -5844,7 +5848,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -5854,7 +5858,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrink paper</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L99" t="inlineStr"/>
@@ -5897,7 +5901,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -5907,21 +5911,21 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrink paper</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>0.3379999999999999</v>
+        <v>0.3282926829268293</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>shrink paper</t>
+          <t>shrinky dink sheets</t>
         </is>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P100" t="inlineStr"/>
@@ -5956,7 +5960,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -5968,7 +5972,7 @@
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>shrink paper</t>
+          <t>shrinky dink sheets</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
@@ -6009,7 +6013,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -6019,11 +6023,11 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>0.405625</v>
+        <v>0.3282926829268293</v>
       </c>
       <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr"/>
@@ -6060,7 +6064,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -6070,7 +6074,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
@@ -6079,7 +6083,7 @@
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>LJ-JJASP-062320-02-1</t>
+          <t>LJ-NBERN-051118-01-1</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
@@ -6113,7 +6117,7 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -6123,21 +6127,21 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink sheets</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>0.405625</v>
+        <v>0.3282926829268293</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>scrunchies</t>
+          <t>shrinky dink sheets</t>
         </is>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P104" t="inlineStr"/>
@@ -6172,7 +6176,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -6184,7 +6188,7 @@
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>scrunchies</t>
+          <t>shrinky dink sheets</t>
         </is>
       </c>
       <c r="N105" t="inlineStr"/>
@@ -6225,7 +6229,7 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Broad</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -6235,11 +6239,11 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
+          <t>AG_B08318QF9T_M_Broad_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>0.405625</v>
+        <v>0.4827777777777778</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
@@ -6276,7 +6280,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Broad</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -6286,7 +6290,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
+          <t>AG_B08318QF9T_M_Broad_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
@@ -6295,7 +6299,7 @@
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>LJ-JJASP-062320-02-1</t>
+          <t>LJ-PROGI-120919-07-1</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
@@ -6329,7 +6333,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Broad</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -6339,21 +6343,21 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
+          <t>AG_B08318QF9T_M_Broad_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>0.405625</v>
+        <v>0.4827777777777778</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>scrunchies</t>
+          <t>balcony planters railing hanging</t>
         </is>
       </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P108" t="inlineStr"/>
@@ -6388,7 +6392,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BR995VC_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Broad</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -6400,7 +6404,7 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>scrunchies</t>
+          <t>balcony planters railing hanging</t>
         </is>
       </c>
       <c r="N109" t="inlineStr"/>
@@ -6441,7 +6445,7 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Exact</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -6451,11 +6455,11 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Broad_terracotta plant saucer</t>
+          <t>AG_B08318QF9T_M_Exact_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>0.3464285714285715</v>
+        <v>0.4827777777777778</v>
       </c>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
@@ -6492,7 +6496,7 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Exact</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -6502,7 +6506,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Broad_terracotta plant saucer</t>
+          <t>AG_B08318QF9T_M_Exact_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
@@ -6511,7 +6515,7 @@
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>LJ-FXJSL-031920-02-1</t>
+          <t>LJ-PROGI-120919-07-1</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr"/>
@@ -6545,7 +6549,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Exact</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -6555,21 +6559,21 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Broad_terracotta plant saucer</t>
+          <t>AG_B08318QF9T_M_Exact_balcony planters railing hanging</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>0.3464285714285715</v>
+        <v>0.4827777777777778</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>terracotta plant saucer</t>
+          <t>balcony planters railing hanging</t>
         </is>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P112" t="inlineStr"/>
@@ -6604,7 +6608,7 @@
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08318QF9T_ISO_Auto</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -6616,7 +6620,7 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>terracotta plant saucer</t>
+          <t>balcony planters railing hanging</t>
         </is>
       </c>
       <c r="N113" t="inlineStr"/>
@@ -6657,7 +6661,7 @@
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B093F7ZNSC_ISO_Exact</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -6667,11 +6671,11 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Exact_terracotta plant saucer</t>
+          <t>AG_B093F7ZNSC_M_Product_B07QQWCP3X</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>0.3464285714285715</v>
+        <v>0.3188888888888889</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -6708,7 +6712,7 @@
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B093F7ZNSC_ISO_Exact</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -6718,7 +6722,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Exact_terracotta plant saucer</t>
+          <t>AG_B093F7ZNSC_M_Product_B07QQWCP3X</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
@@ -6727,7 +6731,7 @@
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>LJ-FXJSL-031920-02-1</t>
+          <t>LJ-YWCYA-042321-04-1</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr"/>
@@ -6755,13 +6759,13 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Exact</t>
+          <t>Juvo_AMZUS_B093F7ZNSC_ISO_Exact</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -6771,21 +6775,21 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>AG_B08663WBRV_M_Exact_terracotta plant saucer</t>
+          <t>AG_B093F7ZNSC_M_Product_B07QQWCP3X</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>0.3464285714285715</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>terracotta plant saucer</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>0.3188888888888889</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>asin="B07QQWCP3X"</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P116" t="inlineStr"/>
@@ -6814,13 +6818,13 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08663WBRV_ISO_Auto</t>
+          <t>Juvo_AMZUS_B093F7ZNSC_ISO_Auto</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -6828,17 +6832,21 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>AG_B093F7ZNSC_A</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>terracotta plant saucer</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>asin="B07QQWCP3X"</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P117" t="inlineStr"/>
@@ -6846,7 +6854,7 @@
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T117" t="inlineStr"/>
@@ -6873,7 +6881,7 @@
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
+          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -6883,11 +6891,11 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Broad_art &amp; poster transport tubes</t>
+          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>0.313125</v>
+        <v>0.2494117647058824</v>
       </c>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
@@ -6924,7 +6932,7 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
+          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -6934,7 +6942,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Broad_art &amp; poster transport tubes</t>
+          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
         </is>
       </c>
       <c r="L119" t="inlineStr"/>
@@ -6943,7 +6951,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>LJ-BKSLC-011518-01-1</t>
+          <t>LJ-HOTOF-052621-05-1</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
@@ -6971,13 +6979,13 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
+          <t>Juvo_AMZUS_B095XW75TW_ISO_Exact</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -6987,21 +6995,21 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Broad_art &amp; poster transport tubes</t>
+          <t>AG_B095XW75TW_M_Product_B095XWL8YZ</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>0.313125</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>art &amp; poster transport tubes</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0.2494117647058824</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>asin="B095XWL8YZ"</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P120" t="inlineStr"/>
@@ -7030,13 +7038,13 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
+          <t>Juvo_AMZUS_B095XW75TW_ISO_Auto</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -7044,17 +7052,21 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>AG_B095XW75TW_A</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>art &amp; poster transport tubes</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>asin="B095XWL8YZ"</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P121" t="inlineStr"/>
@@ -7062,7 +7074,7 @@
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T121" t="inlineStr"/>
@@ -7089,7 +7101,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -7099,11 +7111,11 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Exact_art &amp; poster transport tubes</t>
+          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>0.313125</v>
+        <v>0.29875</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
@@ -7140,7 +7152,7 @@
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -7150,7 +7162,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Exact_art &amp; poster transport tubes</t>
+          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
         </is>
       </c>
       <c r="L123" t="inlineStr"/>
@@ -7159,7 +7171,7 @@
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>LJ-BKSLC-011518-01-1</t>
+          <t>LJ-MMHYI-031418-10-1</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
@@ -7187,13 +7199,13 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -7203,21 +7215,21 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_M_Exact_art &amp; poster transport tubes</t>
+          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>0.313125</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>art &amp; poster transport tubes</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>0.29875</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>asin="B07ZDNTC5N"</t>
+        </is>
+      </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P124" t="inlineStr"/>
@@ -7246,13 +7258,13 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Auto</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -7260,17 +7272,21 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>AG_B07BLMLHFL_A</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>art &amp; poster transport tubes</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>asin="B07ZDNTC5N"</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P125" t="inlineStr"/>
@@ -7278,7 +7294,7 @@
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T125" t="inlineStr"/>
@@ -7305,7 +7321,7 @@
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -7315,11 +7331,11 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
+          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>0.3053333333333333</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
@@ -7356,7 +7372,7 @@
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -7366,7 +7382,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
+          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L127" t="inlineStr"/>
@@ -7375,7 +7391,7 @@
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>LJ-MMHYI-031418-10-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
@@ -7403,13 +7419,13 @@
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -7419,21 +7435,21 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>AG_B07BLMLHFL_M_Product_B07ZDNTC5N</t>
+          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>0.3053333333333333</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>asin="B07ZDNTC5N"</t>
-        </is>
-      </c>
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>gold money envelopes for cash</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P128" t="inlineStr"/>
@@ -7462,13 +7478,13 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -7476,21 +7492,17 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>AG_B07BLMLHFL_A</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>asin="B07ZDNTC5N"</t>
-        </is>
-      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>gold money envelopes for cash</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P129" t="inlineStr"/>
@@ -7498,7 +7510,7 @@
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T129" t="inlineStr"/>
@@ -7525,7 +7537,7 @@
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B083GF48FC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -7535,11 +7547,11 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>AG_B083GF48FC_M_Product_B09NXM91P7</t>
+          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L130" t="n">
-        <v>0.2378571428571428</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
@@ -7576,7 +7588,7 @@
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B083GF48FC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -7586,7 +7598,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>AG_B083GF48FC_M_Product_B09NXM91P7</t>
+          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L131" t="inlineStr"/>
@@ -7595,7 +7607,7 @@
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>LJ-YXGYI-010320-05-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
@@ -7623,13 +7635,13 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B083GF48FC_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -7639,21 +7651,21 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>AG_B083GF48FC_M_Product_B09NXM91P7</t>
+          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>0.2378571428571428</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>asin="B09NXM91P7"</t>
-        </is>
-      </c>
+        <v>0.2933333333333333</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>gold money envelopes for cash</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P132" t="inlineStr"/>
@@ -7682,13 +7694,13 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B083GF48FC_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Auto</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -7696,21 +7708,17 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>AG_B083GF48FC_A</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>asin="B09NXM91P7"</t>
-        </is>
-      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>gold money envelopes for cash</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P133" t="inlineStr"/>
@@ -7718,7 +7726,7 @@
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T133" t="inlineStr"/>
@@ -7745,7 +7753,7 @@
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B085XT4846_ISO_Exact</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -7755,11 +7763,11 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
+          <t>AG_B085XT4846_M_Product_B07H186T2Y</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.15</v>
       </c>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
@@ -7796,7 +7804,7 @@
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B085XT4846_ISO_Exact</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -7806,7 +7814,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
+          <t>AG_B085XT4846_M_Product_B07H186T2Y</t>
         </is>
       </c>
       <c r="L135" t="inlineStr"/>
@@ -7815,7 +7823,7 @@
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>LJ-ZJFRS-092018-02-1</t>
+          <t>LJ-DGKXW-030520-02-1</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
@@ -7843,13 +7851,13 @@
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B085XT4846_ISO_Exact</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -7859,21 +7867,21 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_gold money envelopes for cash</t>
+          <t>AG_B085XT4846_M_Product_B07H186T2Y</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>0.2933333333333333</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>gold money envelopes for cash</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>asin="B07H186T2Y"</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P136" t="inlineStr"/>
@@ -7902,13 +7910,13 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B085XT4846_ISO_Auto</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -7916,17 +7924,21 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>AG_B085XT4846_A</t>
+        </is>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>gold money envelopes for cash</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>asin="B07H186T2Y"</t>
+        </is>
+      </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P137" t="inlineStr"/>
@@ -7934,7 +7946,7 @@
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T137" t="inlineStr"/>
@@ -7961,7 +7973,7 @@
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Broad</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -7971,11 +7983,11 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
+          <t>AG_B0744FQ9VB_M_Broad_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.348</v>
       </c>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
@@ -8012,7 +8024,7 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Broad</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -8022,7 +8034,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
+          <t>AG_B0744FQ9VB_M_Broad_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L139" t="inlineStr"/>
@@ -8031,7 +8043,7 @@
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>LJ-ZJFRS-092018-02-1</t>
+          <t>LJ-HOGJG-111017-02-1</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
@@ -8065,7 +8077,7 @@
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Broad</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -8075,21 +8087,21 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_gold money envelopes for cash</t>
+          <t>AG_B0744FQ9VB_M_Broad_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.348</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>gold money envelopes for cash</t>
+          <t>aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P140" t="inlineStr"/>
@@ -8124,7 +8136,7 @@
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Auto</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Broad</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -8136,7 +8148,7 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>gold money envelopes for cash</t>
+          <t>aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="N141" t="inlineStr"/>
@@ -8177,7 +8189,7 @@
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Exact</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -8187,11 +8199,11 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Broad_mini bible keychain</t>
+          <t>AG_B0744FQ9VB_M_Exact_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>0.1644444444444445</v>
+        <v>0.348</v>
       </c>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
@@ -8228,7 +8240,7 @@
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Exact</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -8238,7 +8250,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Broad_mini bible keychain</t>
+          <t>AG_B0744FQ9VB_M_Exact_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
@@ -8247,7 +8259,7 @@
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>LJ-LIHWJ-090618-01-1</t>
+          <t>LJ-HOGJG-111017-02-1</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
@@ -8281,7 +8293,7 @@
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Exact</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -8291,21 +8303,21 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Broad_mini bible keychain</t>
+          <t>AG_B0744FQ9VB_M_Exact_aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>0.1644444444444445</v>
+        <v>0.348</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>mini bible keychain</t>
+          <t>aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P144" t="inlineStr"/>
@@ -8340,7 +8352,7 @@
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0744FQ9VB_ISO_Auto</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -8352,7 +8364,7 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>mini bible keychain</t>
+          <t>aisle runner for wedding ceremony</t>
         </is>
       </c>
       <c r="N145" t="inlineStr"/>
@@ -8393,7 +8405,7 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
@@ -8403,11 +8415,11 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Exact_mini bible keychain</t>
+          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>0.1644444444444445</v>
+        <v>0.405625</v>
       </c>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
@@ -8444,7 +8456,7 @@
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
         </is>
       </c>
       <c r="F147" t="inlineStr"/>
@@ -8454,7 +8466,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Exact_mini bible keychain</t>
+          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
@@ -8463,7 +8475,7 @@
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>LJ-LIHWJ-090618-01-1</t>
+          <t>LJ-JJASP-062320-02-1</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr"/>
@@ -8497,7 +8509,7 @@
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
@@ -8507,21 +8519,21 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>AG_B07H5DCLVH_M_Exact_mini bible keychain</t>
+          <t>AG_B08BR995VC_M_Broad_scrunchies</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>0.1644444444444445</v>
+        <v>0.405625</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>mini bible keychain</t>
+          <t>scrunchies</t>
         </is>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P148" t="inlineStr"/>
@@ -8556,7 +8568,7 @@
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07H5DCLVH_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Broad</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -8568,7 +8580,7 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>mini bible keychain</t>
+          <t>scrunchies</t>
         </is>
       </c>
       <c r="N149" t="inlineStr"/>
@@ -8609,7 +8621,7 @@
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
         </is>
       </c>
       <c r="F150" t="inlineStr"/>
@@ -8619,11 +8631,11 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Broad_floral foam round</t>
+          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>0.2288888888888889</v>
+        <v>0.405625</v>
       </c>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
@@ -8660,7 +8672,7 @@
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -8670,7 +8682,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Broad_floral foam round</t>
+          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
         </is>
       </c>
       <c r="L151" t="inlineStr"/>
@@ -8679,7 +8691,7 @@
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>LJ-ARUFZ-061918-03-1</t>
+          <t>LJ-JJASP-062320-02-1</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr"/>
@@ -8713,7 +8725,7 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Exact</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -8723,21 +8735,21 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Broad_floral foam round</t>
+          <t>AG_B08BR995VC_M_Exact_scrunchies</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>0.2288888888888889</v>
+        <v>0.405625</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>floral foam round</t>
+          <t>scrunchies</t>
         </is>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P152" t="inlineStr"/>
@@ -8772,7 +8784,7 @@
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08BR995VC_ISO_Auto</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -8784,7 +8796,7 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr">
         <is>
-          <t>floral foam round</t>
+          <t>scrunchies</t>
         </is>
       </c>
       <c r="N153" t="inlineStr"/>
@@ -8825,7 +8837,7 @@
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
         </is>
       </c>
       <c r="F154" t="inlineStr"/>
@@ -8835,11 +8847,11 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Exact_floral foam round</t>
+          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
         </is>
       </c>
       <c r="L154" t="n">
-        <v>0.2288888888888889</v>
+        <v>0.245</v>
       </c>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
@@ -8876,7 +8888,7 @@
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
         </is>
       </c>
       <c r="F155" t="inlineStr"/>
@@ -8886,7 +8898,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Exact_floral foam round</t>
+          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
         </is>
       </c>
       <c r="L155" t="inlineStr"/>
@@ -8895,7 +8907,7 @@
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>LJ-ARUFZ-061918-03-1</t>
+          <t>LJ-HIPPO-031221-03-1</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr"/>
@@ -8923,13 +8935,13 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Exact</t>
         </is>
       </c>
       <c r="F156" t="inlineStr"/>
@@ -8939,21 +8951,21 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>AG_B07FGDMHV7_M_Exact_floral foam round</t>
+          <t>AG_B08Z7TYQQM_M_Product_B0000CF8Q6</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>0.2288888888888889</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>floral foam round</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0.245</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>asin="B0000CF8Q6"</t>
+        </is>
+      </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>exact</t>
+          <t>Targeting Expression</t>
         </is>
       </c>
       <c r="P156" t="inlineStr"/>
@@ -8982,13 +8994,13 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>Product Targeting</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FGDMHV7_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Auto</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
@@ -8996,17 +9008,21 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>AG_B08Z7TYQQM_A</t>
+        </is>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>floral foam round</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>asin="B0000CF8Q6"</t>
+        </is>
+      </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>Campaign Negative Exact</t>
+          <t>Negative Targeting Expression</t>
         </is>
       </c>
       <c r="P157" t="inlineStr"/>
@@ -9014,7 +9030,7 @@
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="inlineStr">
         <is>
-          <t>enabled</t>
+          <t>Enabled</t>
         </is>
       </c>
       <c r="T157" t="inlineStr"/>
@@ -9041,7 +9057,7 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
         </is>
       </c>
       <c r="F158" t="inlineStr"/>
@@ -9051,11 +9067,11 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Broad_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Broad_poster carrying tube</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>0.5794736842105264</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
@@ -9092,7 +9108,7 @@
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
@@ -9102,7 +9118,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Broad_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Broad_poster carrying tube</t>
         </is>
       </c>
       <c r="L159" t="inlineStr"/>
@@ -9111,7 +9127,7 @@
       <c r="O159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>LJ-VAZEN-112217-02-1</t>
+          <t>LJ-BKSLC-011518-01-1</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr"/>
@@ -9145,7 +9161,7 @@
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
         </is>
       </c>
       <c r="F160" t="inlineStr"/>
@@ -9155,15 +9171,15 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Broad_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Broad_poster carrying tube</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>0.5794736842105264</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>foil pans with lids</t>
+          <t>poster carrying tube</t>
         </is>
       </c>
       <c r="N160" t="inlineStr"/>
@@ -9204,7 +9220,7 @@
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Broad</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Broad</t>
         </is>
       </c>
       <c r="F161" t="inlineStr"/>
@@ -9216,7 +9232,7 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr">
         <is>
-          <t>foil pans with lids</t>
+          <t>poster carrying tube</t>
         </is>
       </c>
       <c r="N161" t="inlineStr"/>
@@ -9257,7 +9273,7 @@
       <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -9267,11 +9283,11 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Exact_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Exact_poster carrying tube</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>0.5794736842105264</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
@@ -9308,7 +9324,7 @@
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -9318,7 +9334,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Exact_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Exact_poster carrying tube</t>
         </is>
       </c>
       <c r="L163" t="inlineStr"/>
@@ -9327,7 +9343,7 @@
       <c r="O163" t="inlineStr"/>
       <c r="P163" t="inlineStr">
         <is>
-          <t>LJ-VAZEN-112217-02-1</t>
+          <t>LJ-BKSLC-011518-01-1</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr"/>
@@ -9361,7 +9377,7 @@
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Exact</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Exact</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -9371,15 +9387,15 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>AG_B077TVGWCS_M_Exact_foil pans with lids</t>
+          <t>AG_B01DLYJ2G4_M_Exact_poster carrying tube</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>0.5794736842105264</v>
+        <v>0.3285714285714286</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>foil pans with lids</t>
+          <t>poster carrying tube</t>
         </is>
       </c>
       <c r="N164" t="inlineStr"/>
@@ -9420,7 +9436,7 @@
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B077TVGWCS_ISO_Auto</t>
+          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Auto</t>
         </is>
       </c>
       <c r="F165" t="inlineStr"/>
@@ -9432,7 +9448,7 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr">
         <is>
-          <t>foil pans with lids</t>
+          <t>poster carrying tube</t>
         </is>
       </c>
       <c r="N165" t="inlineStr"/>
@@ -9473,7 +9489,7 @@
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Broad</t>
         </is>
       </c>
       <c r="F166" t="inlineStr"/>
@@ -9483,11 +9499,11 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Broad_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Broad_door stop</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>0.3853333333333333</v>
+        <v>0.3745</v>
       </c>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
@@ -9524,7 +9540,7 @@
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Broad</t>
         </is>
       </c>
       <c r="F167" t="inlineStr"/>
@@ -9534,7 +9550,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Broad_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Broad_door stop</t>
         </is>
       </c>
       <c r="L167" t="inlineStr"/>
@@ -9543,7 +9559,7 @@
       <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr">
         <is>
-          <t>LJ-YHGYP-030918-11-1</t>
+          <t>LJ-HLGYP-121619-05-1</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr"/>
@@ -9577,7 +9593,7 @@
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Broad</t>
         </is>
       </c>
       <c r="F168" t="inlineStr"/>
@@ -9587,15 +9603,15 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Broad_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Broad_door stop</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>0.3853333333333333</v>
+        <v>0.3745</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>round styrofoam discs</t>
+          <t>door stop</t>
         </is>
       </c>
       <c r="N168" t="inlineStr"/>
@@ -9636,7 +9652,7 @@
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Broad</t>
         </is>
       </c>
       <c r="F169" t="inlineStr"/>
@@ -9648,7 +9664,7 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr">
         <is>
-          <t>round styrofoam discs</t>
+          <t>door stop</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
@@ -9689,7 +9705,7 @@
       <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Exact</t>
         </is>
       </c>
       <c r="F170" t="inlineStr"/>
@@ -9699,11 +9715,11 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Exact_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Exact_door stop</t>
         </is>
       </c>
       <c r="L170" t="n">
-        <v>0.3853333333333333</v>
+        <v>0.3745</v>
       </c>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
@@ -9740,7 +9756,7 @@
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Exact</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -9750,7 +9766,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Exact_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Exact_door stop</t>
         </is>
       </c>
       <c r="L171" t="inlineStr"/>
@@ -9759,7 +9775,7 @@
       <c r="O171" t="inlineStr"/>
       <c r="P171" t="inlineStr">
         <is>
-          <t>LJ-YHGYP-030918-11-1</t>
+          <t>LJ-HLGYP-121619-05-1</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr"/>
@@ -9793,7 +9809,7 @@
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Exact</t>
         </is>
       </c>
       <c r="F172" t="inlineStr"/>
@@ -9803,15 +9819,15 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>AG_B07C96SMLK_M_Exact_round styrofoam discs</t>
+          <t>AG_B0832RPNW8_M_Exact_door stop</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>0.3853333333333333</v>
+        <v>0.3745</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>round styrofoam discs</t>
+          <t>door stop</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
@@ -9852,7 +9868,7 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07C96SMLK_ISO_Auto</t>
+          <t>Juvo_AMZUS_B0832RPNW8_ISO_Auto</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -9864,7 +9880,7 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr">
         <is>
-          <t>round styrofoam discs</t>
+          <t>door stop</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
@@ -9905,7 +9921,7 @@
       <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Broad</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -9915,11 +9931,11 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Broad_badge reels retractable</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>0.1358823529411765</v>
+        <v>0.1721428571428571</v>
       </c>
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
@@ -9956,7 +9972,7 @@
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Broad</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -9966,7 +9982,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Broad_badge reels retractable</t>
         </is>
       </c>
       <c r="L175" t="inlineStr"/>
@@ -9975,7 +9991,7 @@
       <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr">
         <is>
-          <t>LJ-CNHAH-071318-01-1</t>
+          <t>LJ-HOLYW-111119-02-1</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr"/>
@@ -10009,7 +10025,7 @@
       <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Broad</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -10019,15 +10035,15 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Broad_badge reels retractable</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>0.1358823529411765</v>
+        <v>0.1721428571428571</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>funny post it notes</t>
+          <t>badge reels retractable</t>
         </is>
       </c>
       <c r="N176" t="inlineStr"/>
@@ -10068,7 +10084,7 @@
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Broad</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -10080,7 +10096,7 @@
       <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr">
         <is>
-          <t>funny post it notes</t>
+          <t>badge reels retractable</t>
         </is>
       </c>
       <c r="N177" t="inlineStr"/>
@@ -10121,7 +10137,7 @@
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Exact</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -10131,11 +10147,11 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Exact_badge reels retractable</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>0.1358823529411765</v>
+        <v>0.1721428571428571</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
@@ -10172,7 +10188,7 @@
       <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Exact</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -10182,7 +10198,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Exact_badge reels retractable</t>
         </is>
       </c>
       <c r="L179" t="inlineStr"/>
@@ -10191,7 +10207,7 @@
       <c r="O179" t="inlineStr"/>
       <c r="P179" t="inlineStr">
         <is>
-          <t>LJ-CNHAH-071318-01-1</t>
+          <t>LJ-HOLYW-111119-02-1</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr"/>
@@ -10225,7 +10241,7 @@
       <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Exact</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -10235,15 +10251,15 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
+          <t>AG_B081DVK97F_M_Exact_badge reels retractable</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>0.1358823529411765</v>
+        <v>0.1721428571428571</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>funny post it notes</t>
+          <t>badge reels retractable</t>
         </is>
       </c>
       <c r="N180" t="inlineStr"/>
@@ -10284,7 +10300,7 @@
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Auto</t>
+          <t>Juvo_AMZUS_B081DVK97F_ISO_Auto</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -10296,7 +10312,7 @@
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr">
         <is>
-          <t>funny post it notes</t>
+          <t>badge reels retractable</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
@@ -10337,7 +10353,7 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Broad</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -10347,11 +10363,11 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Broad_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Broad_cubicle hooks</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>0.4370588235294118</v>
+        <v>0.2453333333333333</v>
       </c>
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
@@ -10388,7 +10404,7 @@
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Broad</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -10398,7 +10414,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Broad_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Broad_cubicle hooks</t>
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
@@ -10407,7 +10423,7 @@
       <c r="O183" t="inlineStr"/>
       <c r="P183" t="inlineStr">
         <is>
-          <t>LJ-JHCJR-072221-04-1</t>
+          <t>LJ-DGBKE-080919-01-1</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr"/>
@@ -10441,7 +10457,7 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Broad</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -10451,15 +10467,15 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Broad_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Broad_cubicle hooks</t>
         </is>
       </c>
       <c r="L184" t="n">
-        <v>0.4370588235294118</v>
+        <v>0.2453333333333333</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>cowboy hats for women</t>
+          <t>cubicle hooks</t>
         </is>
       </c>
       <c r="N184" t="inlineStr"/>
@@ -10500,7 +10516,7 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Broad</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -10512,7 +10528,7 @@
       <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
-          <t>cowboy hats for women</t>
+          <t>cubicle hooks</t>
         </is>
       </c>
       <c r="N185" t="inlineStr"/>
@@ -10553,7 +10569,7 @@
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -10563,11 +10579,11 @@
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Exact_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Exact_cubicle hooks</t>
         </is>
       </c>
       <c r="L186" t="n">
-        <v>0.4370588235294118</v>
+        <v>0.2453333333333333</v>
       </c>
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
@@ -10604,7 +10620,7 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -10614,7 +10630,7 @@
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Exact_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Exact_cubicle hooks</t>
         </is>
       </c>
       <c r="L187" t="inlineStr"/>
@@ -10623,7 +10639,7 @@
       <c r="O187" t="inlineStr"/>
       <c r="P187" t="inlineStr">
         <is>
-          <t>LJ-JHCJR-072221-04-1</t>
+          <t>LJ-DGBKE-080919-01-1</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr"/>
@@ -10657,7 +10673,7 @@
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -10667,15 +10683,15 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>AG_B09B39PT8W_M_Exact_cowboy hats for women</t>
+          <t>AG_B07W5YKDQZ_M_Exact_cubicle hooks</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>0.4370588235294118</v>
+        <v>0.2453333333333333</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>cowboy hats for women</t>
+          <t>cubicle hooks</t>
         </is>
       </c>
       <c r="N188" t="inlineStr"/>
@@ -10716,7 +10732,7 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B09B39PT8W_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Auto</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -10728,7 +10744,7 @@
       <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
-          <t>cowboy hats for women</t>
+          <t>cubicle hooks</t>
         </is>
       </c>
       <c r="N189" t="inlineStr"/>
@@ -10769,7 +10785,7 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Broad</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -10779,11 +10795,11 @@
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Broad_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.371875</v>
       </c>
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
@@ -10820,7 +10836,7 @@
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Broad</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -10830,7 +10846,7 @@
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Broad_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L191" t="inlineStr"/>
@@ -10839,7 +10855,7 @@
       <c r="O191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
-          <t>LJ-NBERN-051118-01-1</t>
+          <t>LJ-NLMBP-041921-01-1</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr"/>
@@ -10873,7 +10889,7 @@
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Broad</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -10883,15 +10899,15 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Broad_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.371875</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>shrinky dink paper</t>
+          <t>jewelry organizer hanging</t>
         </is>
       </c>
       <c r="N192" t="inlineStr"/>
@@ -10932,7 +10948,7 @@
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Broad</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -10944,7 +10960,7 @@
       <c r="L193" t="inlineStr"/>
       <c r="M193" t="inlineStr">
         <is>
-          <t>shrinky dink paper</t>
+          <t>jewelry organizer hanging</t>
         </is>
       </c>
       <c r="N193" t="inlineStr"/>
@@ -10985,7 +11001,7 @@
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Exact</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -10995,11 +11011,11 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Exact_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.371875</v>
       </c>
       <c r="M194" t="inlineStr"/>
       <c r="N194" t="inlineStr"/>
@@ -11036,7 +11052,7 @@
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Exact</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -11046,7 +11062,7 @@
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Exact_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L195" t="inlineStr"/>
@@ -11055,7 +11071,7 @@
       <c r="O195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>LJ-NBERN-051118-01-1</t>
+          <t>LJ-NLMBP-041921-01-1</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr"/>
@@ -11089,7 +11105,7 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Exact</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -11099,15 +11115,15 @@
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
-          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
+          <t>AG_B092ZCML3H_M_Exact_jewelry organizer hanging</t>
         </is>
       </c>
       <c r="L196" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.371875</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>shrinky dink paper</t>
+          <t>jewelry organizer hanging</t>
         </is>
       </c>
       <c r="N196" t="inlineStr"/>
@@ -11148,7 +11164,7 @@
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
+          <t>Juvo_AMZUS_B092ZCML3H_ISO_Auto</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -11160,7 +11176,7 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>shrinky dink paper</t>
+          <t>jewelry organizer hanging</t>
         </is>
       </c>
       <c r="N197" t="inlineStr"/>
@@ -11201,7 +11217,7 @@
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
         </is>
       </c>
       <c r="F198" t="inlineStr"/>
@@ -11211,11 +11227,11 @@
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Broad_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>0.2952631578947369</v>
+        <v>0.14125</v>
       </c>
       <c r="M198" t="inlineStr"/>
       <c r="N198" t="inlineStr"/>
@@ -11252,7 +11268,7 @@
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
         </is>
       </c>
       <c r="F199" t="inlineStr"/>
@@ -11262,7 +11278,7 @@
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Broad_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
         </is>
       </c>
       <c r="L199" t="inlineStr"/>
@@ -11271,7 +11287,7 @@
       <c r="O199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>LJ-JJASP-052621-02-1</t>
+          <t>LJ-CNHAH-071318-01-1</t>
         </is>
       </c>
       <c r="Q199" t="inlineStr"/>
@@ -11305,7 +11321,7 @@
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
         </is>
       </c>
       <c r="F200" t="inlineStr"/>
@@ -11315,15 +11331,15 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Broad_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Broad_funny post it notes</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>0.2952631578947369</v>
+        <v>0.14125</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>hair scarf scrunchies</t>
+          <t>funny post it notes</t>
         </is>
       </c>
       <c r="N200" t="inlineStr"/>
@@ -11364,7 +11380,7 @@
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Broad</t>
         </is>
       </c>
       <c r="F201" t="inlineStr"/>
@@ -11376,7 +11392,7 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
-          <t>hair scarf scrunchies</t>
+          <t>funny post it notes</t>
         </is>
       </c>
       <c r="N201" t="inlineStr"/>
@@ -11417,7 +11433,7 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
         </is>
       </c>
       <c r="F202" t="inlineStr"/>
@@ -11427,11 +11443,11 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Exact_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>0.2952631578947369</v>
+        <v>0.14125</v>
       </c>
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
@@ -11468,7 +11484,7 @@
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
         </is>
       </c>
       <c r="F203" t="inlineStr"/>
@@ -11478,7 +11494,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Exact_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
         </is>
       </c>
       <c r="L203" t="inlineStr"/>
@@ -11487,7 +11503,7 @@
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>LJ-JJASP-052621-02-1</t>
+          <t>LJ-CNHAH-071318-01-1</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr"/>
@@ -11521,7 +11537,7 @@
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Exact</t>
         </is>
       </c>
       <c r="F204" t="inlineStr"/>
@@ -11531,15 +11547,15 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>AG_B095XVD3Y7_M_Exact_hair scarf scrunchies</t>
+          <t>AG_B07FKGHKX3_M_Exact_funny post it notes</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>0.2952631578947369</v>
+        <v>0.14125</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>hair scarf scrunchies</t>
+          <t>funny post it notes</t>
         </is>
       </c>
       <c r="N204" t="inlineStr"/>
@@ -11580,7 +11596,7 @@
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B095XVD3Y7_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07FKGHKX3_ISO_Auto</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -11592,7 +11608,7 @@
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="inlineStr">
         <is>
-          <t>hair scarf scrunchies</t>
+          <t>funny post it notes</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
@@ -11633,7 +11649,7 @@
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Broad</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -11643,11 +11659,11 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Broad_first communion favors for guests</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>0.1778947368421053</v>
+        <v>0.2307142857142857</v>
       </c>
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
@@ -11684,7 +11700,7 @@
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Broad</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -11694,7 +11710,7 @@
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Broad_first communion favors for guests</t>
         </is>
       </c>
       <c r="L207" t="inlineStr"/>
@@ -11703,7 +11719,7 @@
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>LJ-ZJFRS-092018-02-1</t>
+          <t>LJ-XCKCH-052418-06-1</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr"/>
@@ -11737,7 +11753,7 @@
       <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Broad</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -11747,15 +11763,15 @@
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Broad_first communion favors for guests</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>0.1778947368421053</v>
+        <v>0.2307142857142857</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>eid mubarak envelopes</t>
+          <t>first communion favors for guests</t>
         </is>
       </c>
       <c r="N208" t="inlineStr"/>
@@ -11796,7 +11812,7 @@
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Broad</t>
         </is>
       </c>
       <c r="F209" t="inlineStr"/>
@@ -11808,7 +11824,7 @@
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr">
         <is>
-          <t>eid mubarak envelopes</t>
+          <t>first communion favors for guests</t>
         </is>
       </c>
       <c r="N209" t="inlineStr"/>
@@ -11849,7 +11865,7 @@
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Exact</t>
         </is>
       </c>
       <c r="F210" t="inlineStr"/>
@@ -11859,11 +11875,11 @@
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Exact_first communion favors for guests</t>
         </is>
       </c>
       <c r="L210" t="n">
-        <v>0.1778947368421053</v>
+        <v>0.2307142857142857</v>
       </c>
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
@@ -11900,7 +11916,7 @@
       <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Exact</t>
         </is>
       </c>
       <c r="F211" t="inlineStr"/>
@@ -11910,7 +11926,7 @@
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Exact_first communion favors for guests</t>
         </is>
       </c>
       <c r="L211" t="inlineStr"/>
@@ -11919,7 +11935,7 @@
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>LJ-ZJFRS-092018-02-1</t>
+          <t>LJ-XCKCH-052418-06-1</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr"/>
@@ -11953,7 +11969,7 @@
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Exact</t>
         </is>
       </c>
       <c r="F212" t="inlineStr"/>
@@ -11963,15 +11979,15 @@
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
-          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
+          <t>AG_B07D9G4FYC_M_Exact_first communion favors for guests</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>0.1778947368421053</v>
+        <v>0.2307142857142857</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>eid mubarak envelopes</t>
+          <t>first communion favors for guests</t>
         </is>
       </c>
       <c r="N212" t="inlineStr"/>
@@ -12012,7 +12028,7 @@
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07D9G4FYC_ISO_Auto</t>
         </is>
       </c>
       <c r="F213" t="inlineStr"/>
@@ -12024,7 +12040,7 @@
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
         <is>
-          <t>eid mubarak envelopes</t>
+          <t>first communion favors for guests</t>
         </is>
       </c>
       <c r="N213" t="inlineStr"/>
@@ -12065,7 +12081,7 @@
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F214" t="inlineStr"/>
@@ -12075,11 +12091,11 @@
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Broad_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>0.3211111111111111</v>
+        <v>0.3341176470588235</v>
       </c>
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
@@ -12116,7 +12132,7 @@
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F215" t="inlineStr"/>
@@ -12126,7 +12142,7 @@
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Broad_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
         </is>
       </c>
       <c r="L215" t="inlineStr"/>
@@ -12135,7 +12151,7 @@
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr">
         <is>
-          <t>LJ-KNSHN-061620-05-1</t>
+          <t>LJ-NBERN-051118-01-1</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
@@ -12169,7 +12185,7 @@
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F216" t="inlineStr"/>
@@ -12179,15 +12195,15 @@
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Broad_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Broad_shrinky dink paper</t>
         </is>
       </c>
       <c r="L216" t="n">
-        <v>0.3211111111111111</v>
+        <v>0.3341176470588235</v>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>plastic bags for small business</t>
+          <t>shrinky dink paper</t>
         </is>
       </c>
       <c r="N216" t="inlineStr"/>
@@ -12228,7 +12244,7 @@
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Broad</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -12240,7 +12256,7 @@
       <c r="L217" t="inlineStr"/>
       <c r="M217" t="inlineStr">
         <is>
-          <t>plastic bags for small business</t>
+          <t>shrinky dink paper</t>
         </is>
       </c>
       <c r="N217" t="inlineStr"/>
@@ -12281,7 +12297,7 @@
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F218" t="inlineStr"/>
@@ -12291,11 +12307,11 @@
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Exact_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>0.3211111111111111</v>
+        <v>0.3341176470588235</v>
       </c>
       <c r="M218" t="inlineStr"/>
       <c r="N218" t="inlineStr"/>
@@ -12332,7 +12348,7 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -12342,7 +12358,7 @@
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Exact_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
         </is>
       </c>
       <c r="L219" t="inlineStr"/>
@@ -12351,7 +12367,7 @@
       <c r="O219" t="inlineStr"/>
       <c r="P219" t="inlineStr">
         <is>
-          <t>LJ-KNSHN-061620-05-1</t>
+          <t>LJ-NBERN-051118-01-1</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr"/>
@@ -12385,7 +12401,7 @@
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Exact</t>
         </is>
       </c>
       <c r="F220" t="inlineStr"/>
@@ -12395,15 +12411,15 @@
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
-          <t>AG_B08BFK6H2B_M_Exact_plastic bags for small business</t>
+          <t>AG_B07CZXF8WW_M_Exact_shrinky dink paper</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>0.3211111111111111</v>
+        <v>0.3341176470588235</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>plastic bags for small business</t>
+          <t>shrinky dink paper</t>
         </is>
       </c>
       <c r="N220" t="inlineStr"/>
@@ -12444,7 +12460,7 @@
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFK6H2B_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07CZXF8WW_ISO_Auto</t>
         </is>
       </c>
       <c r="F221" t="inlineStr"/>
@@ -12456,7 +12472,7 @@
       <c r="L221" t="inlineStr"/>
       <c r="M221" t="inlineStr">
         <is>
-          <t>plastic bags for small business</t>
+          <t>shrinky dink paper</t>
         </is>
       </c>
       <c r="N221" t="inlineStr"/>
@@ -12497,7 +12513,7 @@
       <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F222" t="inlineStr"/>
@@ -12507,11 +12523,11 @@
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Broad_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Broad_padded headbands for women</t>
         </is>
       </c>
       <c r="L222" t="n">
-        <v>0.4228571428571429</v>
+        <v>0.3164285714285714</v>
       </c>
       <c r="M222" t="inlineStr"/>
       <c r="N222" t="inlineStr"/>
@@ -12548,7 +12564,7 @@
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F223" t="inlineStr"/>
@@ -12558,7 +12574,7 @@
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Broad_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Broad_padded headbands for women</t>
         </is>
       </c>
       <c r="L223" t="inlineStr"/>
@@ -12567,7 +12583,7 @@
       <c r="O223" t="inlineStr"/>
       <c r="P223" t="inlineStr">
         <is>
-          <t>LJ-YHZCJ-030620-02-1</t>
+          <t>LJ-QXSHP-062221-02-1</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr"/>
@@ -12601,7 +12617,7 @@
       <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -12611,15 +12627,15 @@
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Broad_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Broad_padded headbands for women</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>0.4228571428571429</v>
+        <v>0.3164285714285714</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>silicone trivet</t>
+          <t>padded headbands for women</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
@@ -12660,7 +12676,7 @@
       <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Broad</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Broad</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -12672,7 +12688,7 @@
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr">
         <is>
-          <t>silicone trivet</t>
+          <t>padded headbands for women</t>
         </is>
       </c>
       <c r="N225" t="inlineStr"/>
@@ -12713,7 +12729,7 @@
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F226" t="inlineStr"/>
@@ -12723,11 +12739,11 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Exact_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Exact_padded headbands for women</t>
         </is>
       </c>
       <c r="L226" t="n">
-        <v>0.4228571428571429</v>
+        <v>0.3164285714285714</v>
       </c>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
@@ -12764,7 +12780,7 @@
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F227" t="inlineStr"/>
@@ -12774,7 +12790,7 @@
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Exact_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Exact_padded headbands for women</t>
         </is>
       </c>
       <c r="L227" t="inlineStr"/>
@@ -12783,7 +12799,7 @@
       <c r="O227" t="inlineStr"/>
       <c r="P227" t="inlineStr">
         <is>
-          <t>LJ-YHZCJ-030620-02-1</t>
+          <t>LJ-QXSHP-062221-02-1</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr"/>
@@ -12817,7 +12833,7 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Exact</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Exact</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -12827,15 +12843,15 @@
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
-          <t>AG_B085XSDZD5_M_Exact_silicone trivet</t>
+          <t>AG_B097QPXL2Y_M_Exact_padded headbands for women</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>0.4228571428571429</v>
+        <v>0.3164285714285714</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>silicone trivet</t>
+          <t>padded headbands for women</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
@@ -12876,7 +12892,7 @@
       <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B085XSDZD5_ISO_Auto</t>
+          <t>Juvo_AMZUS_B097QPXL2Y_ISO_Auto</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -12888,7 +12904,7 @@
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="inlineStr">
         <is>
-          <t>silicone trivet</t>
+          <t>padded headbands for women</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
@@ -12929,7 +12945,7 @@
       <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Broad</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Broad</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -12939,11 +12955,11 @@
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Broad_floral foam</t>
+          <t>AG_B077JXX15L_M_Broad_gold paper placemats</t>
         </is>
       </c>
       <c r="L230" t="n">
-        <v>0.42</v>
+        <v>0.3578947368421052</v>
       </c>
       <c r="M230" t="inlineStr"/>
       <c r="N230" t="inlineStr"/>
@@ -12980,7 +12996,7 @@
       <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Broad</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Broad</t>
         </is>
       </c>
       <c r="F231" t="inlineStr"/>
@@ -12990,7 +13006,7 @@
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Broad_floral foam</t>
+          <t>AG_B077JXX15L_M_Broad_gold paper placemats</t>
         </is>
       </c>
       <c r="L231" t="inlineStr"/>
@@ -12999,7 +13015,7 @@
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>LJ-YHGYP-030918-05-1</t>
+          <t>LJ-JUNWA-110917-26-1</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr"/>
@@ -13033,7 +13049,7 @@
       <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Broad</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Broad</t>
         </is>
       </c>
       <c r="F232" t="inlineStr"/>
@@ -13043,15 +13059,15 @@
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Broad_floral foam</t>
+          <t>AG_B077JXX15L_M_Broad_gold paper placemats</t>
         </is>
       </c>
       <c r="L232" t="n">
-        <v>0.42</v>
+        <v>0.3578947368421052</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>floral foam</t>
+          <t>gold paper placemats</t>
         </is>
       </c>
       <c r="N232" t="inlineStr"/>
@@ -13092,7 +13108,7 @@
       <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Broad</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Broad</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -13104,7 +13120,7 @@
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="inlineStr">
         <is>
-          <t>floral foam</t>
+          <t>gold paper placemats</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
@@ -13145,7 +13161,7 @@
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Exact</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Exact</t>
         </is>
       </c>
       <c r="F234" t="inlineStr"/>
@@ -13155,11 +13171,11 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Exact_floral foam</t>
+          <t>AG_B077JXX15L_M_Exact_gold paper placemats</t>
         </is>
       </c>
       <c r="L234" t="n">
-        <v>0.42</v>
+        <v>0.3578947368421052</v>
       </c>
       <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr"/>
@@ -13196,7 +13212,7 @@
       <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Exact</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Exact</t>
         </is>
       </c>
       <c r="F235" t="inlineStr"/>
@@ -13206,7 +13222,7 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Exact_floral foam</t>
+          <t>AG_B077JXX15L_M_Exact_gold paper placemats</t>
         </is>
       </c>
       <c r="L235" t="inlineStr"/>
@@ -13215,7 +13231,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>LJ-YHGYP-030918-05-1</t>
+          <t>LJ-JUNWA-110917-26-1</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr"/>
@@ -13249,7 +13265,7 @@
       <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Exact</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Exact</t>
         </is>
       </c>
       <c r="F236" t="inlineStr"/>
@@ -13259,15 +13275,15 @@
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>AG_B07BPQMVYT_M_Exact_floral foam</t>
+          <t>AG_B077JXX15L_M_Exact_gold paper placemats</t>
         </is>
       </c>
       <c r="L236" t="n">
-        <v>0.42</v>
+        <v>0.3578947368421052</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>floral foam</t>
+          <t>gold paper placemats</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
@@ -13308,7 +13324,7 @@
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BPQMVYT_ISO_Auto</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Auto</t>
         </is>
       </c>
       <c r="F237" t="inlineStr"/>
@@ -13320,7 +13336,7 @@
       <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr">
         <is>
-          <t>floral foam</t>
+          <t>gold paper placemats</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
@@ -13361,7 +13377,7 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFDHZ5D_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Broad</t>
         </is>
       </c>
       <c r="F238" t="inlineStr"/>
@@ -13371,11 +13387,11 @@
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>AG_B08BFDHZ5D_M_Product_B08BFK6H2B</t>
+          <t>AG_B08BNC6BSW_M_Broad_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L238" t="n">
-        <v>0.1938888888888889</v>
+        <v>0.2066666666666666</v>
       </c>
       <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr"/>
@@ -13412,7 +13428,7 @@
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFDHZ5D_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Broad</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -13422,7 +13438,7 @@
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>AG_B08BFDHZ5D_M_Product_B08BFK6H2B</t>
+          <t>AG_B08BNC6BSW_M_Broad_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L239" t="inlineStr"/>
@@ -13431,7 +13447,7 @@
       <c r="O239" t="inlineStr"/>
       <c r="P239" t="inlineStr">
         <is>
-          <t>LJ-KNSHN-061620-02-1</t>
+          <t>LJ-LEYSF-062220-01-1</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr"/>
@@ -13459,13 +13475,13 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFDHZ5D_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Broad</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -13475,21 +13491,21 @@
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>AG_B08BFDHZ5D_M_Product_B08BFK6H2B</t>
+          <t>AG_B08BNC6BSW_M_Broad_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L240" t="n">
-        <v>0.1938888888888889</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>asin="B08BFK6H2B"</t>
-        </is>
-      </c>
+        <v>0.2066666666666666</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>sink hose attachment for faucet</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>broad</t>
         </is>
       </c>
       <c r="P240" t="inlineStr"/>
@@ -13518,13 +13534,13 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BFDHZ5D_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Broad</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -13532,21 +13548,17 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>AG_B08BFDHZ5D_A</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>asin="B08BFK6H2B"</t>
-        </is>
-      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>sink hose attachment for faucet</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P241" t="inlineStr"/>
@@ -13554,7 +13566,7 @@
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T241" t="inlineStr"/>
@@ -13581,7 +13593,7 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Exact</t>
         </is>
       </c>
       <c r="F242" t="inlineStr"/>
@@ -13591,11 +13603,11 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>AG_B07W5YKDQZ_M_Product_B01MS1M5QS</t>
+          <t>AG_B08BNC6BSW_M_Exact_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>0.2553333333333333</v>
+        <v>0.2066666666666666</v>
       </c>
       <c r="M242" t="inlineStr"/>
       <c r="N242" t="inlineStr"/>
@@ -13632,7 +13644,7 @@
       <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Exact</t>
         </is>
       </c>
       <c r="F243" t="inlineStr"/>
@@ -13642,7 +13654,7 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>AG_B07W5YKDQZ_M_Product_B01MS1M5QS</t>
+          <t>AG_B08BNC6BSW_M_Exact_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L243" t="inlineStr"/>
@@ -13651,7 +13663,7 @@
       <c r="O243" t="inlineStr"/>
       <c r="P243" t="inlineStr">
         <is>
-          <t>LJ-DGBKE-080919-01-1</t>
+          <t>LJ-LEYSF-062220-01-1</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
@@ -13679,13 +13691,13 @@
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Exact</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -13695,21 +13707,21 @@
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>AG_B07W5YKDQZ_M_Product_B01MS1M5QS</t>
+          <t>AG_B08BNC6BSW_M_Exact_sink hose attachment for faucet</t>
         </is>
       </c>
       <c r="L244" t="n">
-        <v>0.2553333333333333</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr">
-        <is>
-          <t>asin="B01MS1M5QS"</t>
-        </is>
-      </c>
+        <v>0.2066666666666666</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>sink hose attachment for faucet</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>Targeting Expression</t>
+          <t>exact</t>
         </is>
       </c>
       <c r="P244" t="inlineStr"/>
@@ -13738,13 +13750,13 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Product Targeting</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07W5YKDQZ_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BNC6BSW_ISO_Auto</t>
         </is>
       </c>
       <c r="F245" t="inlineStr"/>
@@ -13752,21 +13764,17 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>AG_B07W5YKDQZ_A</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>asin="B01MS1M5QS"</t>
-        </is>
-      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>sink hose attachment for faucet</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>Negative Targeting Expression</t>
+          <t>Campaign Negative Exact</t>
         </is>
       </c>
       <c r="P245" t="inlineStr"/>
@@ -13774,7 +13782,7 @@
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="inlineStr">
         <is>
-          <t>Enabled</t>
+          <t>enabled</t>
         </is>
       </c>
       <c r="T245" t="inlineStr"/>
@@ -13801,7 +13809,7 @@
       <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Broad</t>
         </is>
       </c>
       <c r="F246" t="inlineStr"/>
@@ -13811,11 +13819,11 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Broad_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Broad_passport holder</t>
         </is>
       </c>
       <c r="L246" t="n">
-        <v>0.369375</v>
+        <v>0.219375</v>
       </c>
       <c r="M246" t="inlineStr"/>
       <c r="N246" t="inlineStr"/>
@@ -13852,7 +13860,7 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Broad</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -13862,7 +13870,7 @@
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Broad_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Broad_passport holder</t>
         </is>
       </c>
       <c r="L247" t="inlineStr"/>
@@ -13871,7 +13879,7 @@
       <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr">
         <is>
-          <t>LJ-WTOSY-070320-03-1</t>
+          <t>LJ-ZJDJC-061020-01-1</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr"/>
@@ -13905,7 +13913,7 @@
       <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Broad</t>
         </is>
       </c>
       <c r="F248" t="inlineStr"/>
@@ -13915,15 +13923,15 @@
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Broad_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Broad_passport holder</t>
         </is>
       </c>
       <c r="L248" t="n">
-        <v>0.369375</v>
+        <v>0.219375</v>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>plastic clothesline</t>
+          <t>passport holder</t>
         </is>
       </c>
       <c r="N248" t="inlineStr"/>
@@ -13964,7 +13972,7 @@
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Broad</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Broad</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -13976,7 +13984,7 @@
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="inlineStr">
         <is>
-          <t>plastic clothesline</t>
+          <t>passport holder</t>
         </is>
       </c>
       <c r="N249" t="inlineStr"/>
@@ -14017,7 +14025,7 @@
       <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Exact</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -14027,11 +14035,11 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Exact_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Exact_passport holder</t>
         </is>
       </c>
       <c r="L250" t="n">
-        <v>0.369375</v>
+        <v>0.219375</v>
       </c>
       <c r="M250" t="inlineStr"/>
       <c r="N250" t="inlineStr"/>
@@ -14068,7 +14076,7 @@
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Exact</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -14078,7 +14086,7 @@
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Exact_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Exact_passport holder</t>
         </is>
       </c>
       <c r="L251" t="inlineStr"/>
@@ -14087,7 +14095,7 @@
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="inlineStr">
         <is>
-          <t>LJ-WTOSY-070320-03-1</t>
+          <t>LJ-ZJDJC-061020-01-1</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr"/>
@@ -14121,7 +14129,7 @@
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Exact</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Exact</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -14131,15 +14139,15 @@
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
-          <t>AG_B08CH1D174_M_Exact_plastic clothesline</t>
+          <t>AG_B08B1CK27V_M_Exact_passport holder</t>
         </is>
       </c>
       <c r="L252" t="n">
-        <v>0.369375</v>
+        <v>0.219375</v>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>plastic clothesline</t>
+          <t>passport holder</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
@@ -14180,7 +14188,7 @@
       <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08CH1D174_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08B1CK27V_ISO_Auto</t>
         </is>
       </c>
       <c r="F253" t="inlineStr"/>
@@ -14192,7 +14200,7 @@
       <c r="L253" t="inlineStr"/>
       <c r="M253" t="inlineStr">
         <is>
-          <t>plastic clothesline</t>
+          <t>passport holder</t>
         </is>
       </c>
       <c r="N253" t="inlineStr"/>
@@ -14233,7 +14241,7 @@
       <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F254" t="inlineStr"/>
@@ -14243,11 +14251,11 @@
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Broad_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L254" t="n">
-        <v>0.1731578947368421</v>
+        <v>0.18125</v>
       </c>
       <c r="M254" t="inlineStr"/>
       <c r="N254" t="inlineStr"/>
@@ -14284,7 +14292,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F255" t="inlineStr"/>
@@ -14294,7 +14302,7 @@
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Broad_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L255" t="inlineStr"/>
@@ -14303,7 +14311,7 @@
       <c r="O255" t="inlineStr"/>
       <c r="P255" t="inlineStr">
         <is>
-          <t>LJ-CNJCK-060520-03-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr"/>
@@ -14337,7 +14345,7 @@
       <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F256" t="inlineStr"/>
@@ -14347,15 +14355,15 @@
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Broad_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Broad_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L256" t="n">
-        <v>0.1731578947368421</v>
+        <v>0.18125</v>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>nail polish protector</t>
+          <t>eid mubarak envelopes</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
@@ -14396,7 +14404,7 @@
       <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Broad</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Broad</t>
         </is>
       </c>
       <c r="F257" t="inlineStr"/>
@@ -14408,7 +14416,7 @@
       <c r="L257" t="inlineStr"/>
       <c r="M257" t="inlineStr">
         <is>
-          <t>nail polish protector</t>
+          <t>eid mubarak envelopes</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
@@ -14449,7 +14457,7 @@
       <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F258" t="inlineStr"/>
@@ -14459,11 +14467,11 @@
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Exact_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>0.1731578947368421</v>
+        <v>0.18125</v>
       </c>
       <c r="M258" t="inlineStr"/>
       <c r="N258" t="inlineStr"/>
@@ -14500,7 +14508,7 @@
       <c r="D259" t="inlineStr"/>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -14510,7 +14518,7 @@
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Exact_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L259" t="inlineStr"/>
@@ -14519,7 +14527,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>LJ-CNJCK-060520-03-1</t>
+          <t>LJ-ZJFRS-092018-02-1</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr"/>
@@ -14553,7 +14561,7 @@
       <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Exact</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Exact</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -14563,15 +14571,15 @@
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
-          <t>AG_B089VMTV1J_M_Exact_nail polish protector</t>
+          <t>AG_B07HJ3WCXK_M_Exact_eid mubarak envelopes</t>
         </is>
       </c>
       <c r="L260" t="n">
-        <v>0.1731578947368421</v>
+        <v>0.18125</v>
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>nail polish protector</t>
+          <t>eid mubarak envelopes</t>
         </is>
       </c>
       <c r="N260" t="inlineStr"/>
@@ -14612,7 +14620,7 @@
       <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B089VMTV1J_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07HJ3WCXK_ISO_Auto</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -14624,7 +14632,7 @@
       <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr">
         <is>
-          <t>nail polish protector</t>
+          <t>eid mubarak envelopes</t>
         </is>
       </c>
       <c r="N261" t="inlineStr"/>
@@ -14651,6 +14659,1522 @@
       <c r="AA261" t="inlineStr"/>
       <c r="AB261" t="inlineStr"/>
       <c r="AC261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Broad_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr"/>
+      <c r="Y262" t="inlineStr"/>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+      <c r="AB262" t="inlineStr"/>
+      <c r="AC262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Broad_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>LJ-HNJFC-061621-01-1</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr"/>
+      <c r="Y263" t="inlineStr"/>
+      <c r="Z263" t="inlineStr"/>
+      <c r="AA263" t="inlineStr"/>
+      <c r="AB263" t="inlineStr"/>
+      <c r="AC263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Broad_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>pink throw pillows</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr"/>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>pink throw pillows</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr"/>
+      <c r="Y265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr"/>
+      <c r="AA265" t="inlineStr"/>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Exact_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr"/>
+      <c r="V266" t="inlineStr"/>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr"/>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Exact_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>LJ-HNJFC-061621-01-1</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr"/>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>AG_B097D99J87_M_Exact_pink throw pillows</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>pink throw pillows</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr"/>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B097D99J87_ISO_Auto</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>pink throw pillows</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr"/>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Broad_kitten collar</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr"/>
+      <c r="Y270" t="inlineStr"/>
+      <c r="Z270" t="inlineStr"/>
+      <c r="AA270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Broad_kitten collar</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>LJ-HZYZI-062220-03-1</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr"/>
+      <c r="Y271" t="inlineStr"/>
+      <c r="Z271" t="inlineStr"/>
+      <c r="AA271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Broad_kitten collar</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>kitten collar</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr"/>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>kitten collar</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr"/>
+      <c r="Y273" t="inlineStr"/>
+      <c r="Z273" t="inlineStr"/>
+      <c r="AA273" t="inlineStr"/>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Exact_kitten collar</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr"/>
+      <c r="Y274" t="inlineStr"/>
+      <c r="Z274" t="inlineStr"/>
+      <c r="AA274" t="inlineStr"/>
+      <c r="AB274" t="inlineStr"/>
+      <c r="AC274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Exact_kitten collar</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>LJ-HZYZI-062220-03-1</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr"/>
+      <c r="Y275" t="inlineStr"/>
+      <c r="Z275" t="inlineStr"/>
+      <c r="AA275" t="inlineStr"/>
+      <c r="AB275" t="inlineStr"/>
+      <c r="AC275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>AG_B08BNQ29BK_M_Exact_kitten collar</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>kitten collar</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr"/>
+      <c r="Y276" t="inlineStr"/>
+      <c r="Z276" t="inlineStr"/>
+      <c r="AA276" t="inlineStr"/>
+      <c r="AB276" t="inlineStr"/>
+      <c r="AC276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B08BNQ29BK_ISO_Auto</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>kitten collar</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr"/>
+      <c r="Y277" t="inlineStr"/>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+      <c r="AB277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B07232T3H2_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>AG_B07232T3H2_M_Product_B07Y3X3ZBJ</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>0.3206666666666666</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr"/>
+      <c r="Y278" t="inlineStr"/>
+      <c r="Z278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr"/>
+      <c r="AC278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B07232T3H2_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>AG_B07232T3H2_M_Product_B07Y3X3ZBJ</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>LJ-DRZPC-112517-17-1</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr"/>
+      <c r="Y279" t="inlineStr"/>
+      <c r="Z279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Product Targeting</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B07232T3H2_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>AG_B07232T3H2_M_Product_B07Y3X3ZBJ</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>0.3206666666666666</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>asin="B07Y3X3ZBJ"</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>Targeting Expression</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr"/>
+      <c r="Y280" t="inlineStr"/>
+      <c r="Z280" t="inlineStr"/>
+      <c r="AA280" t="inlineStr"/>
+      <c r="AB280" t="inlineStr"/>
+      <c r="AC280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Product Targeting</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B07232T3H2_ISO_Auto</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>AG_B07232T3H2_A</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>asin="B07Y3X3ZBJ"</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>Negative Targeting Expression</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr"/>
+      <c r="Y281" t="inlineStr"/>
+      <c r="Z281" t="inlineStr"/>
+      <c r="AA281" t="inlineStr"/>
+      <c r="AB281" t="inlineStr"/>
+      <c r="AC281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Broad_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr"/>
+      <c r="Y282" t="inlineStr"/>
+      <c r="Z282" t="inlineStr"/>
+      <c r="AA282" t="inlineStr"/>
+      <c r="AB282" t="inlineStr"/>
+      <c r="AC282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Broad_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>LJ-DGGWJ-112517-01-1</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr"/>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+      <c r="AB283" t="inlineStr"/>
+      <c r="AC283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Broad_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>broad</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
+      <c r="Y284" t="inlineStr"/>
+      <c r="Z284" t="inlineStr"/>
+      <c r="AA284" t="inlineStr"/>
+      <c r="AB284" t="inlineStr"/>
+      <c r="AC284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Broad</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr"/>
+      <c r="Y285" t="inlineStr"/>
+      <c r="Z285" t="inlineStr"/>
+      <c r="AA285" t="inlineStr"/>
+      <c r="AB285" t="inlineStr"/>
+      <c r="AC285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Ad Group</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Exact_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr"/>
+      <c r="Y286" t="inlineStr"/>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Ad</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Exact_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>LJ-DGGWJ-112517-01-1</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr"/>
+      <c r="Y287" t="inlineStr"/>
+      <c r="Z287" t="inlineStr"/>
+      <c r="AA287" t="inlineStr"/>
+      <c r="AB287" t="inlineStr"/>
+      <c r="AC287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Exact</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>AG_B073RXQW6M_M_Exact_colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr"/>
+      <c r="Z288" t="inlineStr"/>
+      <c r="AA288" t="inlineStr"/>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Juvo_AMZUS_B073RXQW6M_ISO_Auto</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>colorful binder clips assorted sizes</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>Campaign Negative Exact</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>enabled</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
+      <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr"/>
+      <c r="Y289" t="inlineStr"/>
+      <c r="Z289" t="inlineStr"/>
+      <c r="AA289" t="inlineStr"/>
+      <c r="AB289" t="inlineStr"/>
+      <c r="AC289" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14663,7 +16187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14826,7 +16350,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_1789789087_ISO_Auto</t>
+          <t>Juvo_AMZUS_178978901X_ISO_Auto</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -14836,7 +16360,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>AG_1789789087_A</t>
+          <t>AG_178978901X_A</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -14900,7 +16424,7 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>asin="1789789346"</t>
+          <t>asin="1789789184"</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -14940,7 +16464,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B01DLYJ2G4_ISO_Auto</t>
+          <t>Juvo_AMZUS_B088T8C6QM_ISO_Auto</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -14950,14 +16474,14 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>AG_B01DLYJ2G4_A</t>
+          <t>AG_B088T8C6QM_A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>asin="b000e39u40"</t>
+          <t>asin="b00ejtzryc"</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -14997,7 +16521,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B087R6HS7C_ISO_Auto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -15007,14 +16531,14 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>AG_B08Z7TYQQM_A</t>
+          <t>AG_B087R6HS7C_A</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>asin="b00416xiq2"</t>
+          <t>asin="b01kjbwoi0"</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -15054,7 +16578,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B088T8C6QM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08BC7Q6H1_ISO_Auto</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -15064,14 +16588,14 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>AG_B088T8C6QM_A</t>
+          <t>AG_B08BC7Q6H1_A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>asin="b007vdwfzc"</t>
+          <t>asin="b07b4nk1s4"</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -15111,7 +16635,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B092LPZFP4_ISO_Auto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -15121,14 +16645,14 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>AG_B07CJJN3PM_A</t>
+          <t>AG_B092LPZFP4_A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>asin="b009ymvx1a"</t>
+          <t>asin="b07c2zdfmg"</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -15168,7 +16692,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B088T8C6QM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07C4ST43N_ISO_Auto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -15178,14 +16702,14 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>AG_B088T8C6QM_A</t>
+          <t>AG_B07C4ST43N_A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>asin="b00ejtzryc"</t>
+          <t>asin="b07c7nhhmz"</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -15225,7 +16749,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B099RH9NGZ_ISO_Auto</t>
+          <t>Juvo_AMZUS_B098DJ26FM_ISO_Auto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -15235,14 +16759,14 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>AG_B099RH9NGZ_A</t>
+          <t>AG_B098DJ26FM_A</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>asin="b00gs1rtrc"</t>
+          <t>asin="b07cjjn3pm"</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -15282,7 +16806,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B098D8QZNY_ISO_Auto</t>
+          <t>Juvo_AMZUS_B096Z1XDYC_ISO_Auto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -15292,14 +16816,14 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>AG_B098D8QZNY_A</t>
+          <t>AG_B096Z1XDYC_A</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>asin="b01m6cjzu2"</t>
+          <t>asin="b07f3jwnyb"</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -15339,7 +16863,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B0891VBCHD_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07C4PNXSF_ISO_Auto</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -15349,14 +16873,14 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>AG_B0891VBCHD_A</t>
+          <t>AG_B07C4PNXSF_A</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>asin="b077zvpl55"</t>
+          <t>asin="b07jcv645c"</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -15396,7 +16920,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B08BC7Q6H1_ISO_Auto</t>
+          <t>Juvo_AMZUS_B097SS4XNV_ISO_Auto</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -15406,14 +16930,14 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>AG_B08BC7Q6H1_A</t>
+          <t>AG_B097SS4XNV_A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>asin="b07b4nk1s4"</t>
+          <t>asin="b07mh5k5hk"</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -15470,7 +16994,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>asin="b07bprhxc7"</t>
+          <t>asin="b07t7f2dkc"</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -15510,7 +17034,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07CQDPHFM_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07X3ZPBKF_ISO_Auto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -15520,14 +17044,14 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>AG_B07CQDPHFM_A</t>
+          <t>AG_B07X3ZPBKF_A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>asin="b07cqfgwvd"</t>
+          <t>asin="b07v9w5yth"</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -15567,7 +17091,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B096Z1XDYC_ISO_Auto</t>
+          <t>Juvo_AMZUS_B087R6HS7C_ISO_Auto</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -15577,14 +17101,14 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>AG_B096Z1XDYC_A</t>
+          <t>AG_B087R6HS7C_A</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>asin="b07f3jwnyb"</t>
+          <t>asin="b07wpr2l3l"</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -15624,7 +17148,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BMQ2V8N_ISO_Auto</t>
+          <t>Juvo_AMZUS_B06XFTDRKQ_ISO_Auto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -15634,14 +17158,14 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AG_B07BMQ2V8N_A</t>
+          <t>AG_B06XFTDRKQ_A</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>asin="b07hmhwbtn"</t>
+          <t>asin="b07zmb5632"</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -15681,7 +17205,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Auto</t>
+          <t>Juvo_AMZUS_B077JXX15L_ISO_Auto</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -15691,14 +17215,14 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>AG_B07BLMLHFL_A</t>
+          <t>AG_B077JXX15L_A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>asin="b07q9htq6y"</t>
+          <t>asin="b083s5y66m"</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -15738,7 +17262,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B087R6HS7C_ISO_Auto</t>
+          <t>Juvo_AMZUS_B099DQT3TN_ISO_Auto</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -15748,14 +17272,14 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>AG_B087R6HS7C_A</t>
+          <t>AG_B099DQT3TN_A</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>asin="b07wpr2l3l"</t>
+          <t>asin="b095y3yzh3"</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -15795,7 +17319,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B0989FW1TH_ISO_Auto</t>
+          <t>Juvo_AMZUS_B07CJJN3PM_ISO_Auto</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -15805,14 +17329,14 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>AG_B0989FW1TH_A</t>
+          <t>AG_B07CJJN3PM_A</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>asin="b07wyls2np"</t>
+          <t>asin="b097ss4xnv"</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -15852,7 +17376,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07DQGD24C_ISO_Auto</t>
+          <t>Juvo_AMZUS_B083GF48FC_ISO_Auto</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -15862,14 +17386,14 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AG_B07DQGD24C_A</t>
+          <t>AG_B083GF48FC_A</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>asin="b083gf48fc"</t>
+          <t>asin="b099w497st"</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -15909,7 +17433,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juvo_AMZUS_B07BLMLHFL_ISO_Auto</t>
+          <t>Juvo_AMZUS_B08CZ64YKD_ISO_Auto</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -15919,14 +17443,14 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AG_B07BLMLHFL_A</t>
+          <t>AG_B08CZ64YKD_A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>asin="b08lvh4cv7"</t>
+          <t>asin="b09j16g2np"</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -15953,177 +17477,6 @@
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Product Targeting</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Juvo_AMZUS_B08Z7TYQQM_ISO_Auto</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>AG_B08Z7TYQQM_A</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>asin="b08nmyhc1m"</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Negative Targeting Expression</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Product Targeting</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Juvo_AMZUS_B092HBTBLF_ISO_Auto</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>AG_B092HBTBLF_A</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>asin="b092hmkclt"</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Negative Targeting Expression</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Product Targeting</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Juvo_AMZUS_B07PQ9QQJF_ISO_Auto</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>AG_B07PQ9QQJF_A</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>asin="b092s9z684"</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Negative Targeting Expression</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
